--- a/Assignment 5/Gamma Tuning Results.xlsx
+++ b/Assignment 5/Gamma Tuning Results.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,6 +407,15 @@
       <c r="B2">
         <v>25</v>
       </c>
+      <c r="C2">
+        <v>55403</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3.7589999999999998E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -448,6 +457,15 @@
       </c>
       <c r="B5">
         <v>25</v>
+      </c>
+      <c r="C5">
+        <v>10842</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>5.6214E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
